--- a/course.xlsx
+++ b/course.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="64">
   <si>
     <t>course_id</t>
   </si>
@@ -41,12 +41,12 @@
     <t>classroom</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -68,7 +68,7 @@
     <t>volume</t>
   </si>
   <si>
-    <t>数据结构</t>
+    <t>高等数学</t>
   </si>
   <si>
     <t>N201</t>
@@ -77,25 +77,166 @@
     <t>通识主干课</t>
   </si>
   <si>
-    <t>熟悉计算机高级语言中常用的结构</t>
+    <t>学习高等数学的基本原理</t>
   </si>
   <si>
     <t>华中师范大学</t>
   </si>
   <si>
+    <t>数学与统计学学院</t>
+  </si>
+  <si>
+    <t>大学物理</t>
+  </si>
+  <si>
+    <t>学习大学物理的基本知识</t>
+  </si>
+  <si>
+    <t>物理学院</t>
+  </si>
+  <si>
+    <t>化学让生活更美好</t>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号楼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8112</t>
+    </r>
+  </si>
+  <si>
+    <t>通识核心课</t>
+  </si>
+  <si>
+    <t>学习生活的化学知识</t>
+  </si>
+  <si>
+    <t>化学学院</t>
+  </si>
+  <si>
+    <t>大学英语</t>
+  </si>
+  <si>
+    <t>N113</t>
+  </si>
+  <si>
+    <t>学习英语</t>
+  </si>
+  <si>
+    <t>外国语学院</t>
+  </si>
+  <si>
+    <t>乒乓球</t>
+  </si>
+  <si>
+    <t>乒羽馆</t>
+  </si>
+  <si>
+    <t>学习乒乓球</t>
+  </si>
+  <si>
+    <t>体育学院</t>
+  </si>
+  <si>
+    <t>马克思主义理论</t>
+  </si>
+  <si>
+    <t>N115</t>
+  </si>
+  <si>
+    <t>学习马克思主义理论</t>
+  </si>
+  <si>
+    <t>马克思主义学院</t>
+  </si>
+  <si>
+    <t>离散数学</t>
+  </si>
+  <si>
+    <t>N108</t>
+  </si>
+  <si>
+    <t>学习离散数学</t>
+  </si>
+  <si>
     <t>计算机学院</t>
   </si>
   <si>
-    <t>操作系统原理</t>
-  </si>
-  <si>
-    <t>N520</t>
+    <t>概率统计</t>
   </si>
   <si>
     <t>专业必修课</t>
   </si>
   <si>
-    <t>学习操作系统的基本原理以及相关的调度算法</t>
+    <t>学习相应知识</t>
+  </si>
+  <si>
+    <t>计算机网络</t>
+  </si>
+  <si>
+    <t>流体力学</t>
+  </si>
+  <si>
+    <t>农药的原理</t>
+  </si>
+  <si>
+    <t>大学英语视听说</t>
+  </si>
+  <si>
+    <t>羽毛球</t>
+  </si>
+  <si>
+    <t>近代史纲要</t>
+  </si>
+  <si>
+    <t>数字逻辑</t>
+  </si>
+  <si>
+    <t>面向对象程序设计</t>
+  </si>
+  <si>
+    <t>计算机组成原理</t>
+  </si>
+  <si>
+    <t>线性代数</t>
+  </si>
+  <si>
+    <t>空气动力学</t>
+  </si>
+  <si>
+    <t>有机化学</t>
+  </si>
+  <si>
+    <t>国际文化交流</t>
+  </si>
+  <si>
+    <t>乒乓球2</t>
+  </si>
+  <si>
+    <t>毛泽东思想</t>
+  </si>
+  <si>
+    <t>人工智能</t>
+  </si>
+  <si>
+    <t>软件工程导论</t>
+  </si>
+  <si>
+    <t>并行计算</t>
   </si>
 </sst>
 </file>
@@ -719,9 +860,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1255,13 +1399,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -1306,22 +1450,22 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
@@ -1330,16 +1474,16 @@
         <v>16</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M2">
         <v>40</v>
@@ -1347,42 +1491,1067 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
         <v>22</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
+      <c r="L20">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
         <v>50</v>
       </c>
     </row>
